--- a/fuentes/contenidos/grado06/guion10/SolicitudVideos_CS_06_10_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion10/SolicitudVideos_CS_06_10_CO.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Área</t>
   </si>
@@ -90,6 +90,42 @@
   </si>
   <si>
     <t>Las aguas oceánicas y marítimas: las corrientes marinas</t>
+  </si>
+  <si>
+    <t>Identifica las formas del relieve terrestre</t>
+  </si>
+  <si>
+    <t>AN010304</t>
+  </si>
+  <si>
+    <t>Recurso</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CN_07_15 La geosfera La tectónica de placas CIENCIAS DE LA NATURALEZA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AN010304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CN_07_15_Recurso110
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -461,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,7 +512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,33 +562,49 @@
         <v>10</v>
       </c>
       <c r="C2" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
